--- a/result/일반_현행추정부채_후처리_20210621.xlsx
+++ b/result/일반_현행추정부채_후처리_20210621.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="57">
   <si>
     <t>RRNR_DVCD</t>
   </si>
@@ -208,7 +208,10 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>↓ 준비금부채 손실조정 추가 반영 필요</t>
+    <t>PV_LIAB_RSV</t>
+  </si>
+  <si>
+    <t>LOSS_ADJ_RSV</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1081,1473 +1084,1950 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R46"/>
+  <dimension ref="A1:X46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AC3" sqref="AC3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="4.5" customWidth="1"/>
-    <col min="9" max="9" width="32.75" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.625" customWidth="1"/>
-    <col min="16" max="16" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="8.625" customWidth="1"/>
+    <col min="1" max="1" width="4.5" customWidth="1"/>
+    <col min="2" max="2" width="32.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.875" customWidth="1"/>
+    <col min="6" max="6" width="12.625" customWidth="1"/>
+    <col min="7" max="7" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.625" customWidth="1"/>
+    <col min="14" max="14" width="13.25" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.25" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="13.75" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="15.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A1" s="41" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" s="42"/>
+      <c r="C1" s="38" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1" s="39"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="32"/>
+      <c r="N1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="H1" s="41" t="s">
-        <v>41</v>
-      </c>
-      <c r="I1" s="42"/>
-      <c r="J1" s="38" t="s">
-        <v>50</v>
-      </c>
-      <c r="K1" s="39"/>
-      <c r="L1" s="40"/>
-      <c r="M1" s="32"/>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A2" s="25" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="25" t="s">
+      <c r="T1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A2" s="43"/>
+      <c r="B2" s="44"/>
+      <c r="C2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N2" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="O2" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="P2" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="25">
+      <c r="Q2" s="25">
         <v>3430983227.5723739</v>
       </c>
-      <c r="E2" s="25">
+      <c r="R2" s="25">
         <v>1734550.538800471</v>
       </c>
-      <c r="H2" s="43"/>
-      <c r="I2" s="44"/>
-      <c r="J2" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="L2" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A3" s="25" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="25" t="s">
+      <c r="T2" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="U2" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="V2" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="W2" s="25">
+        <v>5283524123.6242981</v>
+      </c>
+      <c r="X2" s="25">
+        <v>2409124.6747163329</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A3" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" s="6"/>
+      <c r="C3" s="9">
+        <f>SUM(C4:C22)</f>
+        <v>1185286340.1030133</v>
+      </c>
+      <c r="D3" s="8">
+        <f t="shared" ref="D3:E3" si="0">SUM(D4:D22)</f>
+        <v>389885788.02877343</v>
+      </c>
+      <c r="E3" s="10">
+        <f t="shared" si="0"/>
+        <v>795400552.07423985</v>
+      </c>
+      <c r="I3" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="J3" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="K3" s="31" t="s">
+        <v>2</v>
+      </c>
+      <c r="N3" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="O3" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="P3" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="25">
+      <c r="Q3" s="25">
         <v>7482534891.39254</v>
       </c>
-      <c r="E3" s="25">
+      <c r="R3" s="25">
         <v>3051707.1697283532</v>
       </c>
-      <c r="H3" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="I3" s="6"/>
-      <c r="J3" s="9">
-        <f>SUM(J4:J22)</f>
-        <v>389885788.02877343</v>
-      </c>
-      <c r="K3" s="8">
-        <f t="shared" ref="K3:L3" si="0">SUM(K4:K22)</f>
-        <v>389885788.02877343</v>
-      </c>
-      <c r="L3" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P3" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="R3" s="31" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A4" s="25" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="25" t="s">
+      <c r="T3" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="U3" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="V3" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="W3" s="25">
+        <v>24204195178.546471</v>
+      </c>
+      <c r="X3" s="25">
+        <v>83197245.729582161</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A4" s="21"/>
+      <c r="B4" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" s="13">
+        <f>D4+E4</f>
+        <v>34066865.818143666</v>
+      </c>
+      <c r="D4" s="14">
+        <f>SUMIFS($Q:$Q,$N:$N,$I4,$O:$O,$J4,$P:$P,$K4)/1000</f>
+        <v>16022518.654675599</v>
+      </c>
+      <c r="E4" s="23">
+        <f>SUMIFS($W:$W,$T:$T,$I4,$U:$U,$J4,$V:$V,$K4)/1000</f>
+        <v>18044347.16346807</v>
+      </c>
+      <c r="I4" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="J4" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="K4" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="N4" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="O4" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="P4" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="25">
+      <c r="Q4" s="25">
         <v>31141812514.4706</v>
       </c>
-      <c r="E4" s="25">
+      <c r="R4" s="25">
         <v>14676782.166047679</v>
       </c>
-      <c r="H4" s="21"/>
-      <c r="I4" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="J4" s="13">
-        <f>K4+L4</f>
-        <v>16022518.654675599</v>
-      </c>
-      <c r="K4" s="14">
-        <f t="shared" ref="K4:K22" si="1">SUMIFS($D:$D,$A:$A,$P4,$B:$B,$Q4,$C:$C,$R4)/1000</f>
-        <v>16022518.654675599</v>
-      </c>
-      <c r="L4" s="23"/>
-      <c r="P4" s="28" t="s">
+      <c r="T4" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="U4" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="V4" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="W4" s="25">
+        <v>76319381985.290436</v>
+      </c>
+      <c r="X4" s="25">
+        <v>162174768.24616551</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A5" s="21"/>
+      <c r="B5" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="13">
+        <f t="shared" ref="C5:C22" si="1">D5+E5</f>
+        <v>46909264.984422892</v>
+      </c>
+      <c r="D5" s="14">
+        <f t="shared" ref="D5:D22" si="2">SUMIFS($Q:$Q,$N:$N,$I5,$O:$O,$J5,$P:$P,$K5)/1000</f>
+        <v>14611377.995356899</v>
+      </c>
+      <c r="E5" s="23">
+        <f>SUMIFS($W:$W,$T:$T,$I5,$U:$U,$J5,$V:$V,$K5)/1000</f>
+        <v>32297886.98906599</v>
+      </c>
+      <c r="I5" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="Q4" s="28" t="s">
-        <v>45</v>
-      </c>
-      <c r="R4" s="26" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A5" s="25" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="25" t="s">
+      <c r="J5" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="K5" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="N5" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="O5" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="P5" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="25">
+      <c r="Q5" s="25">
         <v>10531274632.081461</v>
       </c>
-      <c r="E5" s="25">
+      <c r="R5" s="25">
         <v>5257378.0071493359</v>
       </c>
-      <c r="H5" s="21"/>
-      <c r="I5" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="J5" s="13">
-        <f t="shared" ref="J5:J22" si="2">K5+L5</f>
-        <v>14611377.995356899</v>
-      </c>
-      <c r="K5" s="14">
+      <c r="T5" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="U5" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="V5" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="W5" s="25">
+        <v>115167578258.099</v>
+      </c>
+      <c r="X5" s="25">
+        <v>520191418.14721793</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A6" s="21"/>
+      <c r="B6" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="13">
         <f t="shared" si="1"/>
-        <v>14611377.995356899</v>
-      </c>
-      <c r="L5" s="23"/>
-      <c r="P5" s="28" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q5" s="28" t="s">
-        <v>45</v>
-      </c>
-      <c r="R5" s="26" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A6" s="25" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="25">
-        <v>930664359.99484122</v>
-      </c>
-      <c r="E6" s="25">
-        <v>369215.82278205612</v>
-      </c>
-      <c r="H6" s="21"/>
-      <c r="I6" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="J6" s="13">
+        <v>196979522.95890164</v>
+      </c>
+      <c r="D6" s="14">
         <f t="shared" si="2"/>
         <v>67325269.531656042</v>
       </c>
-      <c r="K6" s="14">
+      <c r="E6" s="23">
+        <f>SUMIFS($W:$W,$T:$T,$I6,$U:$U,$J6,$V:$V,$K6)/1000</f>
+        <v>129654253.4272456</v>
+      </c>
+      <c r="I6" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="J6" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="K6" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="N6" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="O6" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="P6" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q6" s="25">
+        <v>930664359.99484122</v>
+      </c>
+      <c r="R6" s="25">
+        <v>369215.82278205612</v>
+      </c>
+      <c r="T6" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="U6" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="V6" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="W6" s="25">
+        <v>10949902548.43368</v>
+      </c>
+      <c r="X6" s="25">
+        <v>3994634.9532437362</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A7" s="21"/>
+      <c r="B7" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="13">
         <f t="shared" si="1"/>
-        <v>67325269.531656042</v>
-      </c>
-      <c r="L6" s="23"/>
-      <c r="P6" s="28" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q6" s="28" t="s">
-        <v>45</v>
-      </c>
-      <c r="R6" s="26" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A7" s="25" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="25">
-        <v>19150863816.71571</v>
-      </c>
-      <c r="E7" s="25">
-        <v>5839207.0055427523</v>
-      </c>
-      <c r="H7" s="21"/>
-      <c r="I7" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="J7" s="13">
+        <v>115857147.35776129</v>
+      </c>
+      <c r="D7" s="14">
         <f t="shared" si="2"/>
         <v>14022213.616101589</v>
       </c>
-      <c r="K7" s="14">
+      <c r="E7" s="23">
+        <f>SUMIFS($W:$W,$T:$T,$I7,$U:$U,$J7,$V:$V,$K7)/1000</f>
+        <v>101834933.7416597</v>
+      </c>
+      <c r="I7" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="J7" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="K7" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="N7" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="O7" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="P7" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q7" s="25">
+        <v>19150863816.71571</v>
+      </c>
+      <c r="R7" s="25">
+        <v>5839207.0055427523</v>
+      </c>
+      <c r="T7" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="U7" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="V7" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="W7" s="25">
+        <v>96795765660.416031</v>
+      </c>
+      <c r="X7" s="25">
+        <v>844138781.35270047</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A8" s="21"/>
+      <c r="B8" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="13">
         <f t="shared" si="1"/>
-        <v>14022213.616101589</v>
-      </c>
-      <c r="L7" s="23"/>
-      <c r="P7" s="28" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q7" s="28" t="s">
-        <v>45</v>
-      </c>
-      <c r="R7" s="26" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A8" s="25" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" s="25">
-        <v>23558545299.843281</v>
-      </c>
-      <c r="E8" s="25">
-        <v>12646689.145522229</v>
-      </c>
-      <c r="H8" s="21"/>
-      <c r="I8" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="J8" s="13">
+        <v>30641030.805271018</v>
+      </c>
+      <c r="D8" s="14">
         <f t="shared" si="2"/>
         <v>5054348.8030179003</v>
       </c>
-      <c r="K8" s="14">
+      <c r="E8" s="23">
+        <f>SUMIFS($W:$W,$T:$T,$I8,$U:$U,$J8,$V:$V,$K8)/1000</f>
+        <v>25586682.002253119</v>
+      </c>
+      <c r="I8" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="J8" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="K8" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="N8" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="O8" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="P8" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q8" s="25">
+        <v>23558545299.843281</v>
+      </c>
+      <c r="R8" s="25">
+        <v>12646689.145522229</v>
+      </c>
+      <c r="T8" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="U8" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="V8" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="W8" s="25">
+        <v>53187031653.489082</v>
+      </c>
+      <c r="X8" s="25">
+        <v>24970384.1126265</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A9" s="21"/>
+      <c r="B9" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="13">
         <f t="shared" si="1"/>
-        <v>5054348.8030179003</v>
-      </c>
-      <c r="L8" s="23"/>
-      <c r="P8" s="28" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q8" s="28" t="s">
-        <v>45</v>
-      </c>
-      <c r="R8" s="26" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A9" s="25" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" s="25">
-        <v>80241144.958514705</v>
-      </c>
-      <c r="E9" s="25">
-        <v>38480.566388335923</v>
-      </c>
-      <c r="H9" s="21"/>
-      <c r="I9" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="J9" s="13">
+        <v>112210795.96113452</v>
+      </c>
+      <c r="D9" s="14">
         <f t="shared" si="2"/>
         <v>37391876.834322289</v>
       </c>
-      <c r="K9" s="14">
+      <c r="E9" s="23">
+        <f>SUMIFS($W:$W,$T:$T,$I9,$U:$U,$J9,$V:$V,$K9)/1000</f>
+        <v>74818919.126812235</v>
+      </c>
+      <c r="I9" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="J9" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="K9" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="N9" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="O9" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="P9" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q9" s="25">
+        <v>80241144.958514705</v>
+      </c>
+      <c r="R9" s="25">
+        <v>38480.566388335923</v>
+      </c>
+      <c r="T9" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="U9" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="V9" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="W9" s="25">
+        <v>7823381666.9095373</v>
+      </c>
+      <c r="X9" s="25">
+        <v>3691146.733454105</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A10" s="21"/>
+      <c r="B10" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="13">
         <f t="shared" si="1"/>
-        <v>37391876.834322289</v>
-      </c>
-      <c r="L9" s="23"/>
-      <c r="P9" s="28" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q9" s="28" t="s">
-        <v>45</v>
-      </c>
-      <c r="R9" s="26" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A10" s="25" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" s="25" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" s="25">
-        <v>34230497701.510559</v>
-      </c>
-      <c r="E10" s="25">
-        <v>12630291.988503739</v>
-      </c>
-      <c r="H10" s="21"/>
-      <c r="I10" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="J10" s="13">
+        <v>119286857.32277128</v>
+      </c>
+      <c r="D10" s="14">
         <f t="shared" si="2"/>
         <v>65698839.930585124</v>
       </c>
-      <c r="K10" s="14">
+      <c r="E10" s="23">
+        <f>SUMIFS($W:$W,$T:$T,$I10,$U:$U,$J10,$V:$V,$K10)/1000</f>
+        <v>53588017.392186157</v>
+      </c>
+      <c r="I10" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="J10" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="K10" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="N10" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="O10" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="P10" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q10" s="25">
+        <v>34230497701.510559</v>
+      </c>
+      <c r="R10" s="25">
+        <v>12630291.988503739</v>
+      </c>
+      <c r="T10" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="U10" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="V10" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="W10" s="25">
+        <v>52193915537.443008</v>
+      </c>
+      <c r="X10" s="25">
+        <v>20250781.037219569</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A11" s="21"/>
+      <c r="B11" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="13">
         <f t="shared" si="1"/>
-        <v>65698839.930585124</v>
-      </c>
-      <c r="L10" s="23"/>
-      <c r="P10" s="28" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q10" s="28" t="s">
-        <v>45</v>
-      </c>
-      <c r="R10" s="26" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A11" s="25" t="s">
-        <v>4</v>
-      </c>
-      <c r="B11" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="D11" s="25">
-        <v>0</v>
-      </c>
-      <c r="E11" s="25">
-        <v>0</v>
-      </c>
-      <c r="H11" s="21"/>
-      <c r="I11" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="J11" s="13">
+        <v>81320435.212785706</v>
+      </c>
+      <c r="D11" s="14">
         <f t="shared" si="2"/>
         <v>4844462.1529250229</v>
       </c>
-      <c r="K11" s="14">
+      <c r="E11" s="23">
+        <f>SUMIFS($W:$W,$T:$T,$I11,$U:$U,$J11,$V:$V,$K11)/1000</f>
+        <v>76475973.059860677</v>
+      </c>
+      <c r="I11" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="J11" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="K11" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="N11" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="O11" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="P11" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q11" s="25">
+        <v>0</v>
+      </c>
+      <c r="R11" s="25">
+        <v>0</v>
+      </c>
+      <c r="T11" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="U11" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="V11" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="W11" s="25">
+        <v>60973728.83339525</v>
+      </c>
+      <c r="X11" s="25">
+        <v>28767.99184703585</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A12" s="21"/>
+      <c r="B12" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" s="13">
         <f t="shared" si="1"/>
-        <v>4844462.1529250229</v>
-      </c>
-      <c r="L11" s="23"/>
-      <c r="P11" s="28" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q11" s="28" t="s">
-        <v>45</v>
-      </c>
-      <c r="R11" s="26" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A12" s="25" t="s">
-        <v>4</v>
-      </c>
-      <c r="B12" s="25" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="D12" s="25">
-        <v>20013562242.551998</v>
-      </c>
-      <c r="E12" s="25">
-        <v>15244178.92000309</v>
-      </c>
-      <c r="H12" s="21"/>
-      <c r="I12" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="J12" s="13">
+        <v>20946877.688272275</v>
+      </c>
+      <c r="D12" s="14">
         <f t="shared" si="2"/>
         <v>1012474.516307664</v>
       </c>
-      <c r="K12" s="14">
+      <c r="E12" s="23">
+        <f>SUMIFS($W:$W,$T:$T,$I12,$U:$U,$J12,$V:$V,$K12)/1000</f>
+        <v>19934403.171964612</v>
+      </c>
+      <c r="I12" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="J12" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="K12" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="N12" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="O12" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="P12" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q12" s="25">
+        <v>20013562242.551998</v>
+      </c>
+      <c r="R12" s="25">
+        <v>15244178.92000309</v>
+      </c>
+      <c r="T12" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="U12" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="V12" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="W12" s="25">
+        <v>40212777221.25174</v>
+      </c>
+      <c r="X12" s="25">
+        <v>17444348.141562451</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A13" s="21"/>
+      <c r="B13" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" s="13">
         <f t="shared" si="1"/>
-        <v>1012474.516307664</v>
-      </c>
-      <c r="L12" s="23"/>
-      <c r="P12" s="28" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q12" s="28" t="s">
-        <v>45</v>
-      </c>
-      <c r="R12" s="26" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A13" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="B13" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13" s="25" t="s">
-        <v>8</v>
-      </c>
-      <c r="D13" s="25">
-        <v>16022518654.6756</v>
-      </c>
-      <c r="E13" s="25">
-        <v>0</v>
-      </c>
-      <c r="H13" s="21"/>
-      <c r="I13" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="J13" s="13">
+        <v>141107615.63202384</v>
+      </c>
+      <c r="D13" s="14">
         <f t="shared" si="2"/>
         <v>61811126.817757346</v>
       </c>
-      <c r="K13" s="14">
+      <c r="E13" s="23">
+        <f>SUMIFS($W:$W,$T:$T,$I13,$U:$U,$J13,$V:$V,$K13)/1000</f>
+        <v>79296488.814266503</v>
+      </c>
+      <c r="I13" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="J13" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="K13" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="N13" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="O13" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="P13" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q13" s="25">
+        <v>16022518654.6756</v>
+      </c>
+      <c r="R13" s="25">
+        <v>0</v>
+      </c>
+      <c r="T13" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="U13" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="V13" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="W13" s="25">
+        <v>18044347163.468071</v>
+      </c>
+      <c r="X13" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A14" s="21"/>
+      <c r="B14" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" s="13">
         <f t="shared" si="1"/>
-        <v>61811126.817757346</v>
-      </c>
-      <c r="L13" s="23"/>
-      <c r="P13" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="D14" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E14" s="23">
+        <f>SUMIFS($W:$W,$T:$T,$I14,$U:$U,$J14,$V:$V,$K14)/1000</f>
+        <v>0</v>
+      </c>
+      <c r="I14" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="Q13" s="28" t="s">
-        <v>45</v>
-      </c>
-      <c r="R13" s="26" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A14" s="25" t="s">
+      <c r="J14" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="K14" s="26"/>
+      <c r="N14" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="B14" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="C14" s="25" t="s">
+      <c r="O14" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="P14" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="25">
+      <c r="Q14" s="25">
         <v>14611377995.356899</v>
       </c>
-      <c r="E14" s="25">
-        <v>0</v>
-      </c>
-      <c r="H14" s="21"/>
-      <c r="I14" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="J14" s="13">
+      <c r="R14" s="25">
+        <v>0</v>
+      </c>
+      <c r="T14" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="U14" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="V14" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="W14" s="25">
+        <v>32297886989.06599</v>
+      </c>
+      <c r="X14" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A15" s="21"/>
+      <c r="B15" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" s="13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D15" s="14">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K14" s="14">
+      <c r="E15" s="23">
+        <f>SUMIFS($W:$W,$T:$T,$I15,$U:$U,$J15,$V:$V,$K15)/1000</f>
+        <v>0</v>
+      </c>
+      <c r="I15" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="J15" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="K15" s="26"/>
+      <c r="N15" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="O15" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="P15" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q15" s="25">
+        <v>67325269531.656036</v>
+      </c>
+      <c r="R15" s="25">
+        <v>0</v>
+      </c>
+      <c r="T15" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="U15" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="V15" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="W15" s="25">
+        <v>129654253427.24561</v>
+      </c>
+      <c r="X15" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A16" s="21"/>
+      <c r="B16" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L14" s="23"/>
-      <c r="P14" s="28" t="s">
+      <c r="D16" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E16" s="23">
+        <f>SUMIFS($W:$W,$T:$T,$I16,$U:$U,$J16,$V:$V,$K16)/1000</f>
+        <v>0</v>
+      </c>
+      <c r="I16" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="Q14" s="28" t="s">
-        <v>45</v>
-      </c>
-      <c r="R14" s="26"/>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A15" s="25" t="s">
+      <c r="J16" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="K16" s="26"/>
+      <c r="N16" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="B15" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="C15" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="D15" s="25">
-        <v>67325269531.656036</v>
-      </c>
-      <c r="E15" s="25">
-        <v>0</v>
-      </c>
-      <c r="H15" s="21"/>
-      <c r="I15" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="J15" s="13">
+      <c r="O16" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="P16" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q16" s="25">
+        <v>14022213616.101589</v>
+      </c>
+      <c r="R16" s="25">
+        <v>0</v>
+      </c>
+      <c r="T16" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="U16" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="V16" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="W16" s="25">
+        <v>101834933741.6597</v>
+      </c>
+      <c r="X16" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A17" s="21"/>
+      <c r="B17" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17" s="13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D17" s="14">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K15" s="14">
+      <c r="E17" s="23">
+        <f>SUMIFS($W:$W,$T:$T,$I17,$U:$U,$J17,$V:$V,$K17)/1000</f>
+        <v>0</v>
+      </c>
+      <c r="I17" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="J17" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="K17" s="26"/>
+      <c r="N17" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="O17" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="P17" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q17" s="25">
+        <v>5054348803.0179005</v>
+      </c>
+      <c r="R17" s="25">
+        <v>0</v>
+      </c>
+      <c r="T17" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="U17" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="V17" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="W17" s="25">
+        <v>25586682002.25312</v>
+      </c>
+      <c r="X17" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A18" s="21"/>
+      <c r="B18" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L15" s="23"/>
-      <c r="P15" s="28" t="s">
+      <c r="D18" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E18" s="23">
+        <f>SUMIFS($W:$W,$T:$T,$I18,$U:$U,$J18,$V:$V,$K18)/1000</f>
+        <v>0</v>
+      </c>
+      <c r="I18" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="Q15" s="28" t="s">
-        <v>45</v>
-      </c>
-      <c r="R15" s="26"/>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A16" s="25" t="s">
+      <c r="J18" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="K18" s="26"/>
+      <c r="N18" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="B16" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="C16" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="D16" s="25">
-        <v>14022213616.101589</v>
-      </c>
-      <c r="E16" s="25">
-        <v>0</v>
-      </c>
-      <c r="H16" s="21"/>
-      <c r="I16" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="J16" s="13">
+      <c r="O18" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="P18" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q18" s="25">
+        <v>37391876834.322289</v>
+      </c>
+      <c r="R18" s="25">
+        <v>0</v>
+      </c>
+      <c r="T18" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="U18" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="V18" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="W18" s="25">
+        <v>74818919126.812241</v>
+      </c>
+      <c r="X18" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A19" s="21"/>
+      <c r="B19" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19" s="13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D19" s="14">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K16" s="14">
+      <c r="E19" s="23">
+        <f>SUMIFS($W:$W,$T:$T,$I19,$U:$U,$J19,$V:$V,$K19)/1000</f>
+        <v>0</v>
+      </c>
+      <c r="I19" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="J19" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="K19" s="26"/>
+      <c r="N19" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="O19" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="P19" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q19" s="25">
+        <v>65698839930.585121</v>
+      </c>
+      <c r="R19" s="25">
+        <v>0</v>
+      </c>
+      <c r="T19" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="U19" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="V19" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="W19" s="25">
+        <v>53588017392.186157</v>
+      </c>
+      <c r="X19" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A20" s="21"/>
+      <c r="B20" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="C20" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L16" s="23"/>
-      <c r="P16" s="28" t="s">
+      <c r="D20" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E20" s="23">
+        <f>SUMIFS($W:$W,$T:$T,$I20,$U:$U,$J20,$V:$V,$K20)/1000</f>
+        <v>0</v>
+      </c>
+      <c r="I20" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="Q16" s="28" t="s">
-        <v>45</v>
-      </c>
-      <c r="R16" s="26"/>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A17" s="25" t="s">
+      <c r="J20" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="K20" s="26"/>
+      <c r="N20" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="B17" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="C17" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="D17" s="25">
-        <v>5054348803.0179005</v>
-      </c>
-      <c r="E17" s="25">
-        <v>0</v>
-      </c>
-      <c r="H17" s="21"/>
-      <c r="I17" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="J17" s="13">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K17" s="14">
+      <c r="O20" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="P20" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q20" s="25">
+        <v>4844462152.9250231</v>
+      </c>
+      <c r="R20" s="25">
+        <v>0</v>
+      </c>
+      <c r="T20" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="U20" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="V20" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="W20" s="25">
+        <v>76475973059.860672</v>
+      </c>
+      <c r="X20" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A21" s="21"/>
+      <c r="B21" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="C21" s="13">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L17" s="23"/>
-      <c r="P17" s="28" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q17" s="28" t="s">
-        <v>45</v>
-      </c>
-      <c r="R17" s="26"/>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A18" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="B18" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="C18" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="D18" s="25">
-        <v>37391876834.322289</v>
-      </c>
-      <c r="E18" s="25">
-        <v>0</v>
-      </c>
-      <c r="H18" s="21"/>
-      <c r="I18" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="J18" s="13">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K18" s="14">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L18" s="23"/>
-      <c r="P18" s="28" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q18" s="28" t="s">
-        <v>45</v>
-      </c>
-      <c r="R18" s="26"/>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A19" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="B19" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="C19" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="D19" s="25">
-        <v>65698839930.585121</v>
-      </c>
-      <c r="E19" s="25">
-        <v>0</v>
-      </c>
-      <c r="H19" s="21"/>
-      <c r="I19" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="J19" s="13">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K19" s="14">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L19" s="23"/>
-      <c r="P19" s="28" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q19" s="28" t="s">
-        <v>45</v>
-      </c>
-      <c r="R19" s="26"/>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A20" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="B20" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="C20" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="D20" s="25">
-        <v>4844462152.9250231</v>
-      </c>
-      <c r="E20" s="25">
-        <v>0</v>
-      </c>
-      <c r="H20" s="21"/>
-      <c r="I20" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="J20" s="13">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K20" s="14">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L20" s="23"/>
-      <c r="P20" s="28" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q20" s="28" t="s">
-        <v>45</v>
-      </c>
-      <c r="R20" s="26"/>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A21" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="B21" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="C21" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="D21" s="25">
-        <v>1012474516.307664</v>
-      </c>
-      <c r="E21" s="25">
-        <v>0</v>
-      </c>
-      <c r="H21" s="21"/>
-      <c r="I21" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="J21" s="13">
+        <v>18952317.236899097</v>
+      </c>
+      <c r="D21" s="14">
         <f t="shared" si="2"/>
         <v>2609.6635384668111</v>
       </c>
-      <c r="K21" s="14">
+      <c r="E21" s="23">
+        <f>SUMIFS($W:$W,$T:$T,$I21,$U:$U,$J21,$V:$V,$K21)/1000</f>
+        <v>18949707.573360629</v>
+      </c>
+      <c r="I21" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="J21" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="K21" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="N21" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="O21" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="P21" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q21" s="25">
+        <v>1012474516.307664</v>
+      </c>
+      <c r="R21" s="25">
+        <v>0</v>
+      </c>
+      <c r="T21" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="U21" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="V21" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="W21" s="25">
+        <v>19934403171.964611</v>
+      </c>
+      <c r="X21" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A22" s="22"/>
+      <c r="B22" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="C22" s="18">
         <f t="shared" si="1"/>
-        <v>2609.6635384668111</v>
-      </c>
-      <c r="L21" s="23"/>
-      <c r="P21" s="28" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q21" s="28" t="s">
-        <v>45</v>
-      </c>
-      <c r="R21" s="26" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A22" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="B22" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="C22" s="25" t="s">
-        <v>16</v>
-      </c>
-      <c r="D22" s="25">
-        <v>61811126817.757347</v>
-      </c>
-      <c r="E22" s="25">
-        <v>0</v>
-      </c>
-      <c r="H22" s="22"/>
-      <c r="I22" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="J22" s="18">
+        <v>267007609.12462607</v>
+      </c>
+      <c r="D22" s="19">
         <f t="shared" si="2"/>
         <v>102088669.51252949</v>
       </c>
-      <c r="K22" s="19">
-        <f t="shared" si="1"/>
-        <v>102088669.51252949</v>
-      </c>
-      <c r="L22" s="24"/>
-      <c r="P22" s="29" t="s">
+      <c r="E22" s="24">
+        <f>SUMIFS($W:$W,$T:$T,$I22,$U:$U,$J22,$V:$V,$K22)/1000</f>
+        <v>164918939.61209658</v>
+      </c>
+      <c r="I22" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="Q22" s="29" t="s">
+      <c r="J22" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="R22" s="27" t="s">
+      <c r="K22" s="27" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A23" s="25" t="s">
+      <c r="N22" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="B23" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="C23" s="25" t="s">
+      <c r="O22" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="P22" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q22" s="25">
+        <v>61811126817.757347</v>
+      </c>
+      <c r="R22" s="25">
+        <v>0</v>
+      </c>
+      <c r="T22" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="U22" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="V22" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="W22" s="25">
+        <v>79296488814.26651</v>
+      </c>
+      <c r="X22" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="N23" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="O23" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="P23" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="D23" s="25">
+      <c r="Q23" s="25">
         <v>2609663.5384668112</v>
       </c>
-      <c r="E23" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A24" s="25" t="s">
+      <c r="R23" s="25">
+        <v>0</v>
+      </c>
+      <c r="T23" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="B24" s="25" t="s">
+      <c r="U23" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="V23" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="W23" s="25">
+        <v>18949707573.36063</v>
+      </c>
+      <c r="X23" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="F24" s="37"/>
+      <c r="N24" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="O24" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="C24" s="25" t="s">
+      <c r="P24" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="D24" s="25">
+      <c r="Q24" s="25">
         <v>102088669512.5295</v>
       </c>
-      <c r="E24" s="25">
-        <v>0</v>
-      </c>
-      <c r="M24" s="37" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="H25" s="41" t="s">
+      <c r="R24" s="25">
+        <v>0</v>
+      </c>
+      <c r="T24" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="U24" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="V24" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="W24" s="25">
+        <v>164918939612.09659</v>
+      </c>
+      <c r="X24" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A25" s="41" t="s">
         <v>41</v>
       </c>
-      <c r="I25" s="42"/>
-      <c r="J25" s="38" t="s">
+      <c r="B25" s="42"/>
+      <c r="C25" s="38" t="s">
         <v>54</v>
       </c>
-      <c r="K25" s="39"/>
-      <c r="L25" s="39"/>
-      <c r="M25" s="40"/>
-    </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="H26" s="43"/>
-      <c r="I26" s="44"/>
-      <c r="J26" s="2" t="s">
+      <c r="D25" s="39"/>
+      <c r="E25" s="39"/>
+      <c r="F25" s="40"/>
+    </row>
+    <row r="26" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A26" s="43"/>
+      <c r="B26" s="44"/>
+      <c r="C26" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="K26" s="3" t="s">
+      <c r="D26" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="L26" s="3" t="s">
+      <c r="E26" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="M26" s="33" t="s">
+      <c r="F26" s="33" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="H27" s="20" t="s">
+    <row r="27" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A27" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="I27" s="6"/>
-      <c r="J27" s="7">
-        <f>SUM(J28:J46)</f>
-        <v>150479491.3497614</v>
-      </c>
-      <c r="K27" s="8">
-        <f t="shared" ref="K27:M27" si="3">SUM(K28:K46)</f>
+      <c r="B27" s="6"/>
+      <c r="C27" s="7">
+        <f>SUM(C28:C46)</f>
+        <v>630995427.51097775</v>
+      </c>
+      <c r="D27" s="8">
+        <f t="shared" ref="D27:F27" si="3">SUM(D28:D46)</f>
         <v>150550979.83109188</v>
       </c>
-      <c r="L27" s="8">
+      <c r="E27" s="8">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="M27" s="34">
+        <v>482198427.56233662</v>
+      </c>
+      <c r="F27" s="34">
         <f t="shared" si="3"/>
-        <v>71488.481330468043</v>
-      </c>
-      <c r="P27" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q27" s="30" t="s">
+        <v>1753979.8824508036</v>
+      </c>
+      <c r="I27" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="J27" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="R27" s="31" t="s">
+      <c r="K27" s="31" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="H28" s="21"/>
-      <c r="I28" s="11" t="s">
+    <row r="28" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A28" s="21"/>
+      <c r="B28" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="J28" s="12">
-        <f t="shared" ref="J28:J29" si="4">K28+L28-M28</f>
-        <v>3429248.6770335734</v>
-      </c>
-      <c r="K28" s="14">
-        <f t="shared" ref="K28:K46" si="5">SUMIFS($D:$D,$A:$A,$P28,$B:$B,$Q28,$C:$C,$R28)/1000</f>
+      <c r="C28" s="12">
+        <f t="shared" ref="C28:C29" si="4">D28+E28-F28</f>
+        <v>8710363.6759831551</v>
+      </c>
+      <c r="D28" s="14">
+        <f t="shared" ref="D28:D46" si="5">SUMIFS($Q:$Q,$N:$N,$I28,$O:$O,$J28,$P:$P,$K28)/1000</f>
         <v>3430983.227572374</v>
       </c>
-      <c r="L28" s="14"/>
-      <c r="M28" s="35">
-        <f t="shared" ref="M28:M46" si="6">SUMIFS($E:$E,$A:$A,$P28,$B:$B,$Q28,$C:$C,$R28)/1000</f>
-        <v>1734.550538800471</v>
-      </c>
-      <c r="P28" s="28" t="s">
+      <c r="E28" s="14">
+        <f>SUMIFS($W:$W,$T:$T,$I28,$U:$U,$J28,$V:$V,$K28)/1000</f>
+        <v>5283524.1236242978</v>
+      </c>
+      <c r="F28" s="35">
+        <f>SUMIFS($X:$X,$T:$T,$I28,$U:$U,$J28,$V:$V,$K28)/1000+SUMIFS($R:$R,$N:$N,$I28,$O:$O,$J28,$P:$P,$K28)/1000</f>
+        <v>4143.6752135168035</v>
+      </c>
+      <c r="I28" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="Q28" s="28" t="s">
-        <v>45</v>
-      </c>
-      <c r="R28" s="26" t="s">
+      <c r="J28" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="K28" s="26" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="H29" s="21"/>
-      <c r="I29" s="15" t="s">
+    <row r="29" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A29" s="21"/>
+      <c r="B29" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="J29" s="12">
+      <c r="C29" s="12">
         <f t="shared" si="4"/>
-        <v>7479483.1842228118</v>
-      </c>
-      <c r="K29" s="14">
+        <v>31600481.117039699</v>
+      </c>
+      <c r="D29" s="14">
         <f t="shared" si="5"/>
         <v>7482534.8913925402</v>
       </c>
-      <c r="L29" s="14"/>
-      <c r="M29" s="35">
-        <f t="shared" si="6"/>
-        <v>3051.7071697283532</v>
-      </c>
-      <c r="P29" s="28" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q29" s="28" t="s">
-        <v>45</v>
-      </c>
-      <c r="R29" s="26" t="s">
+      <c r="E29" s="14">
+        <f>SUMIFS($W:$W,$T:$T,$I29,$U:$U,$J29,$V:$V,$K29)/1000</f>
+        <v>24204195.17854647</v>
+      </c>
+      <c r="F29" s="35">
+        <f>SUMIFS($X:$X,$T:$T,$I29,$U:$U,$J29,$V:$V,$K29)/1000+SUMIFS($R:$R,$N:$N,$I29,$O:$O,$J29,$P:$P,$K29)/1000</f>
+        <v>86248.95289931052</v>
+      </c>
+      <c r="I29" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="J29" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="K29" s="26" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="H30" s="21"/>
-      <c r="I30" s="15" t="s">
+    <row r="30" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A30" s="21"/>
+      <c r="B30" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="J30" s="12">
-        <f>K30+L30-M30</f>
-        <v>31127135.732304551</v>
-      </c>
-      <c r="K30" s="14">
+      <c r="C30" s="12">
+        <f>D30+E30-F30</f>
+        <v>107284342.94934884</v>
+      </c>
+      <c r="D30" s="14">
         <f t="shared" si="5"/>
         <v>31141812.5144706</v>
       </c>
-      <c r="L30" s="14"/>
-      <c r="M30" s="35">
-        <f t="shared" si="6"/>
-        <v>14676.782166047678</v>
-      </c>
-      <c r="P30" s="28" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q30" s="28" t="s">
-        <v>45</v>
-      </c>
-      <c r="R30" s="26" t="s">
+      <c r="E30" s="14">
+        <f>SUMIFS($W:$W,$T:$T,$I30,$U:$U,$J30,$V:$V,$K30)/1000</f>
+        <v>76319381.985290438</v>
+      </c>
+      <c r="F30" s="35">
+        <f>SUMIFS($X:$X,$T:$T,$I30,$U:$U,$J30,$V:$V,$K30)/1000+SUMIFS($R:$R,$N:$N,$I30,$O:$O,$J30,$P:$P,$K30)/1000</f>
+        <v>176851.5504122132</v>
+      </c>
+      <c r="I30" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="J30" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="K30" s="26" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="H31" s="21"/>
-      <c r="I31" s="15" t="s">
+    <row r="31" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A31" s="21"/>
+      <c r="B31" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="J31" s="12">
-        <f t="shared" ref="J31:J46" si="7">K31+L31-M31</f>
-        <v>10526017.254074311</v>
-      </c>
-      <c r="K31" s="14">
+      <c r="C31" s="12">
+        <f t="shared" ref="C31:C46" si="6">D31+E31-F31</f>
+        <v>125173404.0940261</v>
+      </c>
+      <c r="D31" s="14">
         <f t="shared" si="5"/>
         <v>10531274.63208146</v>
       </c>
-      <c r="L31" s="14"/>
-      <c r="M31" s="35">
+      <c r="E31" s="14">
+        <f>SUMIFS($W:$W,$T:$T,$I31,$U:$U,$J31,$V:$V,$K31)/1000</f>
+        <v>115167578.258099</v>
+      </c>
+      <c r="F31" s="35">
+        <f>SUMIFS($X:$X,$T:$T,$I31,$U:$U,$J31,$V:$V,$K31)/1000+SUMIFS($R:$R,$N:$N,$I31,$O:$O,$J31,$P:$P,$K31)/1000</f>
+        <v>525448.79615436727</v>
+      </c>
+      <c r="I31" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="J31" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="K31" s="26" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="32" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A32" s="21"/>
+      <c r="B32" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" s="12">
         <f t="shared" si="6"/>
-        <v>5257.3780071493356</v>
-      </c>
-      <c r="P31" s="28" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q31" s="28" t="s">
-        <v>45</v>
-      </c>
-      <c r="R31" s="26" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="H32" s="21"/>
-      <c r="I32" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="J32" s="12">
-        <f t="shared" si="7"/>
-        <v>930295.14417205926</v>
-      </c>
-      <c r="K32" s="14">
+        <v>11876203.057652496</v>
+      </c>
+      <c r="D32" s="14">
         <f t="shared" si="5"/>
         <v>930664.35999484127</v>
       </c>
-      <c r="L32" s="14"/>
-      <c r="M32" s="35">
+      <c r="E32" s="14">
+        <f>SUMIFS($W:$W,$T:$T,$I32,$U:$U,$J32,$V:$V,$K32)/1000</f>
+        <v>10949902.54843368</v>
+      </c>
+      <c r="F32" s="35">
+        <f>SUMIFS($X:$X,$T:$T,$I32,$U:$U,$J32,$V:$V,$K32)/1000+SUMIFS($R:$R,$N:$N,$I32,$O:$O,$J32,$P:$P,$K32)/1000</f>
+        <v>4363.8507760257926</v>
+      </c>
+      <c r="I32" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="J32" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="K32" s="26" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A33" s="21"/>
+      <c r="B33" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="C33" s="12">
         <f t="shared" si="6"/>
-        <v>369.21582278205614</v>
-      </c>
-      <c r="P32" s="28" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q32" s="28" t="s">
-        <v>45</v>
-      </c>
-      <c r="R32" s="26" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="33" spans="8:18" x14ac:dyDescent="0.3">
-      <c r="H33" s="21"/>
-      <c r="I33" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="J33" s="12">
-        <f t="shared" si="7"/>
-        <v>19145024.609710168</v>
-      </c>
-      <c r="K33" s="14">
+        <v>115096651.48877351</v>
+      </c>
+      <c r="D33" s="14">
         <f t="shared" si="5"/>
         <v>19150863.81671571</v>
       </c>
-      <c r="L33" s="14"/>
-      <c r="M33" s="35">
+      <c r="E33" s="14">
+        <f>SUMIFS($W:$W,$T:$T,$I33,$U:$U,$J33,$V:$V,$K33)/1000</f>
+        <v>96795765.660416037</v>
+      </c>
+      <c r="F33" s="35">
+        <f>SUMIFS($X:$X,$T:$T,$I33,$U:$U,$J33,$V:$V,$K33)/1000+SUMIFS($R:$R,$N:$N,$I33,$O:$O,$J33,$P:$P,$K33)/1000</f>
+        <v>849977.98835824314</v>
+      </c>
+      <c r="I33" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="J33" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="K33" s="26" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A34" s="21"/>
+      <c r="B34" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="C34" s="12">
         <f t="shared" si="6"/>
-        <v>5839.2070055427521</v>
-      </c>
-      <c r="P33" s="28" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q33" s="28" t="s">
-        <v>45</v>
-      </c>
-      <c r="R33" s="26" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="34" spans="8:18" x14ac:dyDescent="0.3">
-      <c r="H34" s="21"/>
-      <c r="I34" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="J34" s="12">
-        <f t="shared" si="7"/>
-        <v>23545898.610697757</v>
-      </c>
-      <c r="K34" s="14">
+        <v>76707959.880074218</v>
+      </c>
+      <c r="D34" s="14">
         <f t="shared" si="5"/>
         <v>23558545.299843282</v>
       </c>
-      <c r="L34" s="14"/>
-      <c r="M34" s="35">
+      <c r="E34" s="14">
+        <f>SUMIFS($W:$W,$T:$T,$I34,$U:$U,$J34,$V:$V,$K34)/1000</f>
+        <v>53187031.653489083</v>
+      </c>
+      <c r="F34" s="35">
+        <f>SUMIFS($X:$X,$T:$T,$I34,$U:$U,$J34,$V:$V,$K34)/1000+SUMIFS($R:$R,$N:$N,$I34,$O:$O,$J34,$P:$P,$K34)/1000</f>
+        <v>37617.073258148725</v>
+      </c>
+      <c r="I34" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="J34" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="K34" s="26" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A35" s="21"/>
+      <c r="B35" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="C35" s="12">
         <f t="shared" si="6"/>
-        <v>12646.689145522229</v>
-      </c>
-      <c r="P34" s="28" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q34" s="28" t="s">
-        <v>45</v>
-      </c>
-      <c r="R34" s="26" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="35" spans="8:18" x14ac:dyDescent="0.3">
-      <c r="H35" s="21"/>
-      <c r="I35" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="J35" s="12">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="K35" s="14">
+        <v>0</v>
+      </c>
+      <c r="D35" s="14">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="L35" s="14"/>
-      <c r="M35" s="35">
+      <c r="E35" s="14">
+        <f>SUMIFS($W:$W,$T:$T,$I35,$U:$U,$J35,$V:$V,$K35)/1000</f>
+        <v>0</v>
+      </c>
+      <c r="F35" s="35">
+        <f>SUMIFS($X:$X,$T:$T,$I35,$U:$U,$J35,$V:$V,$K35)/1000+SUMIFS($R:$R,$N:$N,$I35,$O:$O,$J35,$P:$P,$K35)/1000</f>
+        <v>0</v>
+      </c>
+      <c r="I35" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="J35" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="K35" s="26" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A36" s="21"/>
+      <c r="B36" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="C36" s="12">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="P35" s="28" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q35" s="28" t="s">
-        <v>45</v>
-      </c>
-      <c r="R35" s="26" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="36" spans="8:18" x14ac:dyDescent="0.3">
-      <c r="H36" s="21"/>
-      <c r="I36" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="J36" s="12">
-        <f t="shared" si="7"/>
-        <v>80202.664392126375</v>
-      </c>
-      <c r="K36" s="14">
+        <v>7899893.1845682096</v>
+      </c>
+      <c r="D36" s="14">
         <f t="shared" si="5"/>
         <v>80241.144958514706</v>
       </c>
-      <c r="L36" s="14"/>
-      <c r="M36" s="35">
+      <c r="E36" s="14">
+        <f>SUMIFS($W:$W,$T:$T,$I36,$U:$U,$J36,$V:$V,$K36)/1000</f>
+        <v>7823381.6669095373</v>
+      </c>
+      <c r="F36" s="35">
+        <f>SUMIFS($X:$X,$T:$T,$I36,$U:$U,$J36,$V:$V,$K36)/1000+SUMIFS($R:$R,$N:$N,$I36,$O:$O,$J36,$P:$P,$K36)/1000</f>
+        <v>3729.6272998424406</v>
+      </c>
+      <c r="I36" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="J36" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="K36" s="26" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A37" s="21"/>
+      <c r="B37" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="C37" s="12">
         <f t="shared" si="6"/>
-        <v>38.480566388335923</v>
-      </c>
-      <c r="P36" s="28" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q36" s="28" t="s">
-        <v>45</v>
-      </c>
-      <c r="R36" s="26" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="37" spans="8:18" x14ac:dyDescent="0.3">
-      <c r="H37" s="21"/>
-      <c r="I37" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="J37" s="12">
-        <f t="shared" si="7"/>
-        <v>34217867.409522049</v>
-      </c>
-      <c r="K37" s="14">
+        <v>86391532.165927842</v>
+      </c>
+      <c r="D37" s="14">
         <f t="shared" si="5"/>
         <v>34230497.701510556</v>
       </c>
-      <c r="L37" s="14"/>
-      <c r="M37" s="35">
+      <c r="E37" s="14">
+        <f>SUMIFS($W:$W,$T:$T,$I37,$U:$U,$J37,$V:$V,$K37)/1000</f>
+        <v>52193915.537443012</v>
+      </c>
+      <c r="F37" s="35">
+        <f>SUMIFS($X:$X,$T:$T,$I37,$U:$U,$J37,$V:$V,$K37)/1000+SUMIFS($R:$R,$N:$N,$I37,$O:$O,$J37,$P:$P,$K37)/1000</f>
+        <v>32881.073025723308</v>
+      </c>
+      <c r="I37" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="J37" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="K37" s="26" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A38" s="21"/>
+      <c r="B38" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="C38" s="12">
         <f t="shared" si="6"/>
-        <v>12630.291988503739</v>
-      </c>
-      <c r="P37" s="28" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q37" s="28" t="s">
-        <v>45</v>
-      </c>
-      <c r="R37" s="26" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="38" spans="8:18" x14ac:dyDescent="0.3">
-      <c r="H38" s="21"/>
-      <c r="I38" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="J38" s="12">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="K38" s="14">
+        <v>0</v>
+      </c>
+      <c r="D38" s="14">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="L38" s="14"/>
-      <c r="M38" s="35">
+      <c r="E38" s="14">
+        <f>SUMIFS($W:$W,$T:$T,$I38,$U:$U,$J38,$V:$V,$K38)/1000</f>
+        <v>0</v>
+      </c>
+      <c r="F38" s="35">
+        <f>SUMIFS($X:$X,$T:$T,$I38,$U:$U,$J38,$V:$V,$K38)/1000+SUMIFS($R:$R,$N:$N,$I38,$O:$O,$J38,$P:$P,$K38)/1000</f>
+        <v>0</v>
+      </c>
+      <c r="I38" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="J38" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="K38" s="26"/>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A39" s="21"/>
+      <c r="B39" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="C39" s="12">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="P38" s="28" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q38" s="28" t="s">
-        <v>45</v>
-      </c>
-      <c r="R38" s="26"/>
-    </row>
-    <row r="39" spans="8:18" x14ac:dyDescent="0.3">
-      <c r="H39" s="21"/>
-      <c r="I39" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="J39" s="12">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="K39" s="14">
+      <c r="D39" s="14">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="L39" s="14"/>
-      <c r="M39" s="35">
+      <c r="E39" s="14">
+        <f>SUMIFS($W:$W,$T:$T,$I39,$U:$U,$J39,$V:$V,$K39)/1000</f>
+        <v>0</v>
+      </c>
+      <c r="F39" s="35">
+        <f>SUMIFS($X:$X,$T:$T,$I39,$U:$U,$J39,$V:$V,$K39)/1000+SUMIFS($R:$R,$N:$N,$I39,$O:$O,$J39,$P:$P,$K39)/1000</f>
+        <v>0</v>
+      </c>
+      <c r="I39" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="J39" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="K39" s="26"/>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A40" s="21"/>
+      <c r="B40" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="C40" s="12">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="P39" s="28" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q39" s="28" t="s">
-        <v>45</v>
-      </c>
-      <c r="R39" s="26"/>
-    </row>
-    <row r="40" spans="8:18" x14ac:dyDescent="0.3">
-      <c r="H40" s="21"/>
-      <c r="I40" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="J40" s="12">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="K40" s="14">
+      <c r="D40" s="14">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="L40" s="14"/>
-      <c r="M40" s="35">
+      <c r="E40" s="14">
+        <f>SUMIFS($W:$W,$T:$T,$I40,$U:$U,$J40,$V:$V,$K40)/1000</f>
+        <v>0</v>
+      </c>
+      <c r="F40" s="35">
+        <f>SUMIFS($X:$X,$T:$T,$I40,$U:$U,$J40,$V:$V,$K40)/1000+SUMIFS($R:$R,$N:$N,$I40,$O:$O,$J40,$P:$P,$K40)/1000</f>
+        <v>0</v>
+      </c>
+      <c r="I40" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="J40" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="K40" s="26"/>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A41" s="21"/>
+      <c r="B41" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="C41" s="12">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="P40" s="28" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q40" s="28" t="s">
-        <v>45</v>
-      </c>
-      <c r="R40" s="26"/>
-    </row>
-    <row r="41" spans="8:18" x14ac:dyDescent="0.3">
-      <c r="H41" s="21"/>
-      <c r="I41" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="J41" s="12">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="K41" s="14">
+      <c r="D41" s="14">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="L41" s="14"/>
-      <c r="M41" s="35">
+      <c r="E41" s="14">
+        <f>SUMIFS($W:$W,$T:$T,$I41,$U:$U,$J41,$V:$V,$K41)/1000</f>
+        <v>0</v>
+      </c>
+      <c r="F41" s="35">
+        <f>SUMIFS($X:$X,$T:$T,$I41,$U:$U,$J41,$V:$V,$K41)/1000+SUMIFS($R:$R,$N:$N,$I41,$O:$O,$J41,$P:$P,$K41)/1000</f>
+        <v>0</v>
+      </c>
+      <c r="I41" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="J41" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="K41" s="26"/>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A42" s="21"/>
+      <c r="B42" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="C42" s="12">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="P41" s="28" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q41" s="28" t="s">
-        <v>45</v>
-      </c>
-      <c r="R41" s="26"/>
-    </row>
-    <row r="42" spans="8:18" x14ac:dyDescent="0.3">
-      <c r="H42" s="21"/>
-      <c r="I42" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="J42" s="12">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="K42" s="14">
+      <c r="D42" s="14">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="L42" s="14"/>
-      <c r="M42" s="35">
+      <c r="E42" s="14">
+        <f>SUMIFS($W:$W,$T:$T,$I42,$U:$U,$J42,$V:$V,$K42)/1000</f>
+        <v>0</v>
+      </c>
+      <c r="F42" s="35">
+        <f>SUMIFS($X:$X,$T:$T,$I42,$U:$U,$J42,$V:$V,$K42)/1000+SUMIFS($R:$R,$N:$N,$I42,$O:$O,$J42,$P:$P,$K42)/1000</f>
+        <v>0</v>
+      </c>
+      <c r="I42" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="J42" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="K42" s="26"/>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A43" s="21"/>
+      <c r="B43" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="C43" s="12">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="P42" s="28" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q42" s="28" t="s">
-        <v>45</v>
-      </c>
-      <c r="R42" s="26"/>
-    </row>
-    <row r="43" spans="8:18" x14ac:dyDescent="0.3">
-      <c r="H43" s="21"/>
-      <c r="I43" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="J43" s="12">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="K43" s="14">
+      <c r="D43" s="14">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="L43" s="14"/>
-      <c r="M43" s="35">
+      <c r="E43" s="14">
+        <f>SUMIFS($W:$W,$T:$T,$I43,$U:$U,$J43,$V:$V,$K43)/1000</f>
+        <v>0</v>
+      </c>
+      <c r="F43" s="35">
+        <f>SUMIFS($X:$X,$T:$T,$I43,$U:$U,$J43,$V:$V,$K43)/1000+SUMIFS($R:$R,$N:$N,$I43,$O:$O,$J43,$P:$P,$K43)/1000</f>
+        <v>0</v>
+      </c>
+      <c r="I43" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="J43" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="K43" s="26"/>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A44" s="21"/>
+      <c r="B44" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="C44" s="12">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="P43" s="28" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q43" s="28" t="s">
-        <v>45</v>
-      </c>
-      <c r="R43" s="26"/>
-    </row>
-    <row r="44" spans="8:18" x14ac:dyDescent="0.3">
-      <c r="H44" s="21"/>
-      <c r="I44" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="J44" s="12">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="K44" s="14">
+      <c r="D44" s="14">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="L44" s="14"/>
-      <c r="M44" s="35">
+      <c r="E44" s="14">
+        <f>SUMIFS($W:$W,$T:$T,$I44,$U:$U,$J44,$V:$V,$K44)/1000</f>
+        <v>0</v>
+      </c>
+      <c r="F44" s="35">
+        <f>SUMIFS($X:$X,$T:$T,$I44,$U:$U,$J44,$V:$V,$K44)/1000+SUMIFS($R:$R,$N:$N,$I44,$O:$O,$J44,$P:$P,$K44)/1000</f>
+        <v>0</v>
+      </c>
+      <c r="I44" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="J44" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="K44" s="26"/>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A45" s="21"/>
+      <c r="B45" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="C45" s="12">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="P44" s="28" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q44" s="28" t="s">
-        <v>45</v>
-      </c>
-      <c r="R44" s="26"/>
-    </row>
-    <row r="45" spans="8:18" x14ac:dyDescent="0.3">
-      <c r="H45" s="21"/>
-      <c r="I45" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="J45" s="12">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="K45" s="14">
+        <v>60944.960841548214</v>
+      </c>
+      <c r="D45" s="14">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="L45" s="14"/>
-      <c r="M45" s="35">
+      <c r="E45" s="14">
+        <f>SUMIFS($W:$W,$T:$T,$I45,$U:$U,$J45,$V:$V,$K45)/1000</f>
+        <v>60973.728833395253</v>
+      </c>
+      <c r="F45" s="35">
+        <f>SUMIFS($X:$X,$T:$T,$I45,$U:$U,$J45,$V:$V,$K45)/1000+SUMIFS($R:$R,$N:$N,$I45,$O:$O,$J45,$P:$P,$K45)/1000</f>
+        <v>28.767991847035852</v>
+      </c>
+      <c r="I45" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="J45" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="K45" s="26" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A46" s="22"/>
+      <c r="B46" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="C46" s="17">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="P45" s="28" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q45" s="28" t="s">
-        <v>45</v>
-      </c>
-      <c r="R45" s="26" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="46" spans="8:18" x14ac:dyDescent="0.3">
-      <c r="H46" s="22"/>
-      <c r="I46" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="J46" s="17">
-        <f t="shared" si="7"/>
-        <v>19998318.063631993</v>
-      </c>
-      <c r="K46" s="19">
+        <v>60193650.936742172</v>
+      </c>
+      <c r="D46" s="19">
         <f t="shared" si="5"/>
         <v>20013562.242551997</v>
       </c>
-      <c r="L46" s="19"/>
-      <c r="M46" s="36">
-        <f t="shared" si="6"/>
-        <v>15244.178920003091</v>
-      </c>
-      <c r="P46" s="29" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q46" s="29" t="s">
+      <c r="E46" s="19">
+        <f>SUMIFS($W:$W,$T:$T,$I46,$U:$U,$J46,$V:$V,$K46)/1000</f>
+        <v>40212777.221251741</v>
+      </c>
+      <c r="F46" s="36">
+        <f>SUMIFS($X:$X,$T:$T,$I46,$U:$U,$J46,$V:$V,$K46)/1000+SUMIFS($R:$R,$N:$N,$I46,$O:$O,$J46,$P:$P,$K46)/1000</f>
+        <v>32688.527061565543</v>
+      </c>
+      <c r="I46" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="J46" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="R46" s="27" t="s">
+      <c r="K46" s="27" t="s">
         <v>47</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="J1:L1"/>
-    <mergeCell ref="J25:M25"/>
-    <mergeCell ref="H25:I26"/>
-    <mergeCell ref="H1:I2"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="C25:F25"/>
+    <mergeCell ref="A25:B26"/>
+    <mergeCell ref="A1:B2"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/result/일반_현행추정부채_후처리_20210621.xlsx
+++ b/result/일반_현행추정부채_후처리_20210621.xlsx
@@ -1086,8 +1086,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AC3" sqref="AC3"/>
+    <sheetView tabSelected="1" topLeftCell="R1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AB3" sqref="AB3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1176,10 +1176,10 @@
         <v>8</v>
       </c>
       <c r="Q2" s="25">
-        <v>3430983227.5723739</v>
+        <v>3550280246.8202982</v>
       </c>
       <c r="R2" s="25">
-        <v>1734550.538800471</v>
+        <v>1794861.736870707</v>
       </c>
       <c r="T2" s="25" t="s">
         <v>4</v>
@@ -1204,11 +1204,11 @@
       <c r="B3" s="6"/>
       <c r="C3" s="9">
         <f>SUM(C4:C22)</f>
-        <v>1185286340.1030133</v>
+        <v>1176726160.1785712</v>
       </c>
       <c r="D3" s="8">
         <f t="shared" ref="D3:E3" si="0">SUM(D4:D22)</f>
-        <v>389885788.02877343</v>
+        <v>381325608.10433131</v>
       </c>
       <c r="E3" s="10">
         <f t="shared" si="0"/>
@@ -1233,10 +1233,10 @@
         <v>9</v>
       </c>
       <c r="Q3" s="25">
-        <v>7482534891.39254</v>
+        <v>7469530994.4856873</v>
       </c>
       <c r="R3" s="25">
-        <v>3051707.1697283532</v>
+        <v>3046405.9811168662</v>
       </c>
       <c r="T3" s="25" t="s">
         <v>4</v>
@@ -1261,14 +1261,14 @@
       </c>
       <c r="C4" s="13">
         <f>D4+E4</f>
-        <v>34066865.818143666</v>
+        <v>34615912.961876579</v>
       </c>
       <c r="D4" s="14">
         <f>SUMIFS($Q:$Q,$N:$N,$I4,$O:$O,$J4,$P:$P,$K4)/1000</f>
-        <v>16022518.654675599</v>
+        <v>16571565.79840851</v>
       </c>
       <c r="E4" s="23">
-        <f>SUMIFS($W:$W,$T:$T,$I4,$U:$U,$J4,$V:$V,$K4)/1000</f>
+        <f t="shared" ref="E4:E22" si="1">SUMIFS($W:$W,$T:$T,$I4,$U:$U,$J4,$V:$V,$K4)/1000</f>
         <v>18044347.16346807</v>
       </c>
       <c r="I4" s="28" t="s">
@@ -1290,10 +1290,10 @@
         <v>10</v>
       </c>
       <c r="Q4" s="25">
-        <v>31141812514.4706</v>
+        <v>31479174658.01157</v>
       </c>
       <c r="R4" s="25">
-        <v>14676782.166047679</v>
+        <v>14833625.503525799</v>
       </c>
       <c r="T4" s="25" t="s">
         <v>4</v>
@@ -1317,15 +1317,15 @@
         <v>23</v>
       </c>
       <c r="C5" s="13">
-        <f t="shared" ref="C5:C22" si="1">D5+E5</f>
-        <v>46909264.984422892</v>
+        <f t="shared" ref="C5:C22" si="2">D5+E5</f>
+        <v>46889916.66648905</v>
       </c>
       <c r="D5" s="14">
-        <f t="shared" ref="D5:D22" si="2">SUMIFS($Q:$Q,$N:$N,$I5,$O:$O,$J5,$P:$P,$K5)/1000</f>
-        <v>14611377.995356899</v>
+        <f t="shared" ref="D5:D22" si="3">SUMIFS($Q:$Q,$N:$N,$I5,$O:$O,$J5,$P:$P,$K5)/1000</f>
+        <v>14592029.67742306</v>
       </c>
       <c r="E5" s="23">
-        <f>SUMIFS($W:$W,$T:$T,$I5,$U:$U,$J5,$V:$V,$K5)/1000</f>
+        <f t="shared" si="1"/>
         <v>32297886.98906599</v>
       </c>
       <c r="I5" s="28" t="s">
@@ -1347,10 +1347,10 @@
         <v>11</v>
       </c>
       <c r="Q5" s="25">
-        <v>10531274632.081461</v>
+        <v>10393424811.56966</v>
       </c>
       <c r="R5" s="25">
-        <v>5257378.0071493359</v>
+        <v>5179967.1529320329</v>
       </c>
       <c r="T5" s="25" t="s">
         <v>4</v>
@@ -1374,15 +1374,15 @@
         <v>24</v>
       </c>
       <c r="C6" s="13">
+        <f t="shared" si="2"/>
+        <v>197523814.88594103</v>
+      </c>
+      <c r="D6" s="14">
+        <f t="shared" si="3"/>
+        <v>67869561.458695441</v>
+      </c>
+      <c r="E6" s="23">
         <f t="shared" si="1"/>
-        <v>196979522.95890164</v>
-      </c>
-      <c r="D6" s="14">
-        <f t="shared" si="2"/>
-        <v>67325269.531656042</v>
-      </c>
-      <c r="E6" s="23">
-        <f>SUMIFS($W:$W,$T:$T,$I6,$U:$U,$J6,$V:$V,$K6)/1000</f>
         <v>129654253.4272456</v>
       </c>
       <c r="I6" s="28" t="s">
@@ -1404,10 +1404,10 @@
         <v>12</v>
       </c>
       <c r="Q6" s="25">
-        <v>930664359.99484122</v>
+        <v>938873846.21339691</v>
       </c>
       <c r="R6" s="25">
-        <v>369215.82278205612</v>
+        <v>372472.73416231468</v>
       </c>
       <c r="T6" s="25" t="s">
         <v>4</v>
@@ -1431,15 +1431,15 @@
         <v>25</v>
       </c>
       <c r="C7" s="13">
+        <f t="shared" si="2"/>
+        <v>115358012.35031027</v>
+      </c>
+      <c r="D7" s="14">
+        <f t="shared" si="3"/>
+        <v>13523078.608650571</v>
+      </c>
+      <c r="E7" s="23">
         <f t="shared" si="1"/>
-        <v>115857147.35776129</v>
-      </c>
-      <c r="D7" s="14">
-        <f t="shared" si="2"/>
-        <v>14022213.616101589</v>
-      </c>
-      <c r="E7" s="23">
-        <f>SUMIFS($W:$W,$T:$T,$I7,$U:$U,$J7,$V:$V,$K7)/1000</f>
         <v>101834933.7416597</v>
       </c>
       <c r="I7" s="28" t="s">
@@ -1461,10 +1461,10 @@
         <v>13</v>
       </c>
       <c r="Q7" s="25">
-        <v>19150863816.71571</v>
+        <v>17710590521.406219</v>
       </c>
       <c r="R7" s="25">
-        <v>5839207.0055427523</v>
+        <v>5401060.6743696276</v>
       </c>
       <c r="T7" s="25" t="s">
         <v>4</v>
@@ -1488,15 +1488,15 @@
         <v>26</v>
       </c>
       <c r="C8" s="13">
+        <f t="shared" si="2"/>
+        <v>30685175.081241958</v>
+      </c>
+      <c r="D8" s="14">
+        <f t="shared" si="3"/>
+        <v>5098493.0789888408</v>
+      </c>
+      <c r="E8" s="23">
         <f t="shared" si="1"/>
-        <v>30641030.805271018</v>
-      </c>
-      <c r="D8" s="14">
-        <f t="shared" si="2"/>
-        <v>5054348.8030179003</v>
-      </c>
-      <c r="E8" s="23">
-        <f>SUMIFS($W:$W,$T:$T,$I8,$U:$U,$J8,$V:$V,$K8)/1000</f>
         <v>25586682.002253119</v>
       </c>
       <c r="I8" s="28" t="s">
@@ -1518,10 +1518,10 @@
         <v>14</v>
       </c>
       <c r="Q8" s="25">
-        <v>23558545299.843281</v>
+        <v>23433787538.49036</v>
       </c>
       <c r="R8" s="25">
-        <v>12646689.145522229</v>
+        <v>12579615.19459237</v>
       </c>
       <c r="T8" s="25" t="s">
         <v>4</v>
@@ -1545,15 +1545,15 @@
         <v>27</v>
       </c>
       <c r="C9" s="13">
+        <f t="shared" si="2"/>
+        <v>109290634.59295535</v>
+      </c>
+      <c r="D9" s="14">
+        <f t="shared" si="3"/>
+        <v>34471715.466143124</v>
+      </c>
+      <c r="E9" s="23">
         <f t="shared" si="1"/>
-        <v>112210795.96113452</v>
-      </c>
-      <c r="D9" s="14">
-        <f t="shared" si="2"/>
-        <v>37391876.834322289</v>
-      </c>
-      <c r="E9" s="23">
-        <f>SUMIFS($W:$W,$T:$T,$I9,$U:$U,$J9,$V:$V,$K9)/1000</f>
         <v>74818919.126812235</v>
       </c>
       <c r="I9" s="28" t="s">
@@ -1575,10 +1575,10 @@
         <v>15</v>
       </c>
       <c r="Q9" s="25">
-        <v>80241144.958514705</v>
+        <v>79289677.485545754</v>
       </c>
       <c r="R9" s="25">
-        <v>38480.566388335923</v>
+        <v>38024.279189557121</v>
       </c>
       <c r="T9" s="25" t="s">
         <v>4</v>
@@ -1602,15 +1602,15 @@
         <v>28</v>
       </c>
       <c r="C10" s="13">
+        <f t="shared" si="2"/>
+        <v>118866373.97439288</v>
+      </c>
+      <c r="D10" s="14">
+        <f t="shared" si="3"/>
+        <v>65278356.582206719</v>
+      </c>
+      <c r="E10" s="23">
         <f t="shared" si="1"/>
-        <v>119286857.32277128</v>
-      </c>
-      <c r="D10" s="14">
-        <f t="shared" si="2"/>
-        <v>65698839.930585124</v>
-      </c>
-      <c r="E10" s="23">
-        <f>SUMIFS($W:$W,$T:$T,$I10,$U:$U,$J10,$V:$V,$K10)/1000</f>
         <v>53588017.392186157</v>
       </c>
       <c r="I10" s="28" t="s">
@@ -1632,10 +1632,10 @@
         <v>16</v>
       </c>
       <c r="Q10" s="25">
-        <v>34230497701.510559</v>
+        <v>33843469407.872219</v>
       </c>
       <c r="R10" s="25">
-        <v>12630291.988503739</v>
+        <v>12487484.65921882</v>
       </c>
       <c r="T10" s="25" t="s">
         <v>4</v>
@@ -1659,15 +1659,15 @@
         <v>29</v>
       </c>
       <c r="C11" s="13">
+        <f t="shared" si="2"/>
+        <v>81300268.469378799</v>
+      </c>
+      <c r="D11" s="14">
+        <f t="shared" si="3"/>
+        <v>4824295.4095181189</v>
+      </c>
+      <c r="E11" s="23">
         <f t="shared" si="1"/>
-        <v>81320435.212785706</v>
-      </c>
-      <c r="D11" s="14">
-        <f t="shared" si="2"/>
-        <v>4844462.1529250229</v>
-      </c>
-      <c r="E11" s="23">
-        <f>SUMIFS($W:$W,$T:$T,$I11,$U:$U,$J11,$V:$V,$K11)/1000</f>
         <v>76475973.059860677</v>
       </c>
       <c r="I11" s="28" t="s">
@@ -1716,15 +1716,15 @@
         <v>30</v>
       </c>
       <c r="C12" s="13">
+        <f t="shared" si="2"/>
+        <v>20934767.004265338</v>
+      </c>
+      <c r="D12" s="14">
+        <f t="shared" si="3"/>
+        <v>1000363.832300727</v>
+      </c>
+      <c r="E12" s="23">
         <f t="shared" si="1"/>
-        <v>20946877.688272275</v>
-      </c>
-      <c r="D12" s="14">
-        <f t="shared" si="2"/>
-        <v>1012474.516307664</v>
-      </c>
-      <c r="E12" s="23">
-        <f>SUMIFS($W:$W,$T:$T,$I12,$U:$U,$J12,$V:$V,$K12)/1000</f>
         <v>19934403.171964612</v>
       </c>
       <c r="I12" s="28" t="s">
@@ -1746,10 +1746,10 @@
         <v>18</v>
       </c>
       <c r="Q12" s="25">
-        <v>20013562242.551998</v>
+        <v>19010420135.328671</v>
       </c>
       <c r="R12" s="25">
-        <v>15244178.92000309</v>
+        <v>14493260.44646378</v>
       </c>
       <c r="T12" s="25" t="s">
         <v>4</v>
@@ -1773,15 +1773,15 @@
         <v>31</v>
       </c>
       <c r="C13" s="13">
+        <f t="shared" si="2"/>
+        <v>140387467.13706416</v>
+      </c>
+      <c r="D13" s="14">
+        <f t="shared" si="3"/>
+        <v>61090978.322797641</v>
+      </c>
+      <c r="E13" s="23">
         <f t="shared" si="1"/>
-        <v>141107615.63202384</v>
-      </c>
-      <c r="D13" s="14">
-        <f t="shared" si="2"/>
-        <v>61811126.817757346</v>
-      </c>
-      <c r="E13" s="23">
-        <f>SUMIFS($W:$W,$T:$T,$I13,$U:$U,$J13,$V:$V,$K13)/1000</f>
         <v>79296488.814266503</v>
       </c>
       <c r="I13" s="28" t="s">
@@ -1803,7 +1803,7 @@
         <v>8</v>
       </c>
       <c r="Q13" s="25">
-        <v>16022518654.6756</v>
+        <v>16571565798.40851</v>
       </c>
       <c r="R13" s="25">
         <v>0</v>
@@ -1830,15 +1830,15 @@
         <v>32</v>
       </c>
       <c r="C14" s="13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D14" s="14">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E14" s="23">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="D14" s="14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="E14" s="23">
-        <f>SUMIFS($W:$W,$T:$T,$I14,$U:$U,$J14,$V:$V,$K14)/1000</f>
         <v>0</v>
       </c>
       <c r="I14" s="28" t="s">
@@ -1858,7 +1858,7 @@
         <v>9</v>
       </c>
       <c r="Q14" s="25">
-        <v>14611377995.356899</v>
+        <v>14592029677.423059</v>
       </c>
       <c r="R14" s="25">
         <v>0</v>
@@ -1885,15 +1885,15 @@
         <v>33</v>
       </c>
       <c r="C15" s="13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D15" s="14">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E15" s="23">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="D15" s="14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="E15" s="23">
-        <f>SUMIFS($W:$W,$T:$T,$I15,$U:$U,$J15,$V:$V,$K15)/1000</f>
         <v>0</v>
       </c>
       <c r="I15" s="28" t="s">
@@ -1913,7 +1913,7 @@
         <v>10</v>
       </c>
       <c r="Q15" s="25">
-        <v>67325269531.656036</v>
+        <v>67869561458.695442</v>
       </c>
       <c r="R15" s="25">
         <v>0</v>
@@ -1940,15 +1940,15 @@
         <v>34</v>
       </c>
       <c r="C16" s="13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D16" s="14">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E16" s="23">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="D16" s="14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="E16" s="23">
-        <f>SUMIFS($W:$W,$T:$T,$I16,$U:$U,$J16,$V:$V,$K16)/1000</f>
         <v>0</v>
       </c>
       <c r="I16" s="28" t="s">
@@ -1968,7 +1968,7 @@
         <v>11</v>
       </c>
       <c r="Q16" s="25">
-        <v>14022213616.101589</v>
+        <v>13523078608.65057</v>
       </c>
       <c r="R16" s="25">
         <v>0</v>
@@ -1995,15 +1995,15 @@
         <v>35</v>
       </c>
       <c r="C17" s="13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D17" s="14">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E17" s="23">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="D17" s="14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="E17" s="23">
-        <f>SUMIFS($W:$W,$T:$T,$I17,$U:$U,$J17,$V:$V,$K17)/1000</f>
         <v>0</v>
       </c>
       <c r="I17" s="28" t="s">
@@ -2023,7 +2023,7 @@
         <v>12</v>
       </c>
       <c r="Q17" s="25">
-        <v>5054348803.0179005</v>
+        <v>5098493078.9888411</v>
       </c>
       <c r="R17" s="25">
         <v>0</v>
@@ -2050,15 +2050,15 @@
         <v>36</v>
       </c>
       <c r="C18" s="13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D18" s="14">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E18" s="23">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="D18" s="14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="E18" s="23">
-        <f>SUMIFS($W:$W,$T:$T,$I18,$U:$U,$J18,$V:$V,$K18)/1000</f>
         <v>0</v>
       </c>
       <c r="I18" s="28" t="s">
@@ -2078,7 +2078,7 @@
         <v>13</v>
       </c>
       <c r="Q18" s="25">
-        <v>37391876834.322289</v>
+        <v>34471715466.143127</v>
       </c>
       <c r="R18" s="25">
         <v>0</v>
@@ -2105,15 +2105,15 @@
         <v>37</v>
       </c>
       <c r="C19" s="13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D19" s="14">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E19" s="23">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="D19" s="14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="E19" s="23">
-        <f>SUMIFS($W:$W,$T:$T,$I19,$U:$U,$J19,$V:$V,$K19)/1000</f>
         <v>0</v>
       </c>
       <c r="I19" s="28" t="s">
@@ -2133,7 +2133,7 @@
         <v>14</v>
       </c>
       <c r="Q19" s="25">
-        <v>65698839930.585121</v>
+        <v>65278356582.206718</v>
       </c>
       <c r="R19" s="25">
         <v>0</v>
@@ -2160,15 +2160,15 @@
         <v>38</v>
       </c>
       <c r="C20" s="13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D20" s="14">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E20" s="23">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="D20" s="14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="E20" s="23">
-        <f>SUMIFS($W:$W,$T:$T,$I20,$U:$U,$J20,$V:$V,$K20)/1000</f>
         <v>0</v>
       </c>
       <c r="I20" s="28" t="s">
@@ -2188,7 +2188,7 @@
         <v>19</v>
       </c>
       <c r="Q20" s="25">
-        <v>4844462152.9250231</v>
+        <v>4824295409.5181189</v>
       </c>
       <c r="R20" s="25">
         <v>0</v>
@@ -2215,15 +2215,15 @@
         <v>39</v>
       </c>
       <c r="C21" s="13">
+        <f t="shared" si="2"/>
+        <v>18952349.459572911</v>
+      </c>
+      <c r="D21" s="14">
+        <f t="shared" si="3"/>
+        <v>2641.8862122834948</v>
+      </c>
+      <c r="E21" s="23">
         <f t="shared" si="1"/>
-        <v>18952317.236899097</v>
-      </c>
-      <c r="D21" s="14">
-        <f t="shared" si="2"/>
-        <v>2609.6635384668111</v>
-      </c>
-      <c r="E21" s="23">
-        <f>SUMIFS($W:$W,$T:$T,$I21,$U:$U,$J21,$V:$V,$K21)/1000</f>
         <v>18949707.573360629</v>
       </c>
       <c r="I21" s="28" t="s">
@@ -2245,7 +2245,7 @@
         <v>15</v>
       </c>
       <c r="Q21" s="25">
-        <v>1012474516.307664</v>
+        <v>1000363832.300727</v>
       </c>
       <c r="R21" s="25">
         <v>0</v>
@@ -2272,15 +2272,15 @@
         <v>40</v>
       </c>
       <c r="C22" s="18">
+        <f t="shared" si="2"/>
+        <v>261921467.59508288</v>
+      </c>
+      <c r="D22" s="19">
+        <f t="shared" si="3"/>
+        <v>97002527.982986286</v>
+      </c>
+      <c r="E22" s="24">
         <f t="shared" si="1"/>
-        <v>267007609.12462607</v>
-      </c>
-      <c r="D22" s="19">
-        <f t="shared" si="2"/>
-        <v>102088669.51252949</v>
-      </c>
-      <c r="E22" s="24">
-        <f>SUMIFS($W:$W,$T:$T,$I22,$U:$U,$J22,$V:$V,$K22)/1000</f>
         <v>164918939.61209658</v>
       </c>
       <c r="I22" s="29" t="s">
@@ -2302,7 +2302,7 @@
         <v>16</v>
       </c>
       <c r="Q22" s="25">
-        <v>61811126817.757347</v>
+        <v>61090978322.797638</v>
       </c>
       <c r="R22" s="25">
         <v>0</v>
@@ -2334,7 +2334,7 @@
         <v>17</v>
       </c>
       <c r="Q23" s="25">
-        <v>2609663.5384668112</v>
+        <v>2641886.2122834949</v>
       </c>
       <c r="R23" s="25">
         <v>0</v>
@@ -2367,7 +2367,7 @@
         <v>18</v>
       </c>
       <c r="Q24" s="25">
-        <v>102088669512.5295</v>
+        <v>97002527982.986282</v>
       </c>
       <c r="R24" s="25">
         <v>0</v>
@@ -2423,19 +2423,19 @@
       <c r="B27" s="6"/>
       <c r="C27" s="7">
         <f>SUM(C28:C46)</f>
-        <v>630995427.51097775</v>
+        <v>628354551.22053754</v>
       </c>
       <c r="D27" s="8">
-        <f t="shared" ref="D27:F27" si="3">SUM(D28:D46)</f>
-        <v>150550979.83109188</v>
+        <f t="shared" ref="D27:F27" si="4">SUM(D28:D46)</f>
+        <v>147908841.83768362</v>
       </c>
       <c r="E27" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>482198427.56233662</v>
       </c>
       <c r="F27" s="34">
-        <f t="shared" si="3"/>
-        <v>1753979.8824508036</v>
+        <f t="shared" si="4"/>
+        <v>1752718.1794827781</v>
       </c>
       <c r="I27" s="30" t="s">
         <v>0</v>
@@ -2453,20 +2453,20 @@
         <v>43</v>
       </c>
       <c r="C28" s="12">
-        <f t="shared" ref="C28:C29" si="4">D28+E28-F28</f>
-        <v>8710363.6759831551</v>
+        <f t="shared" ref="C28:C29" si="5">D28+E28-F28</f>
+        <v>8829600.3840330094</v>
       </c>
       <c r="D28" s="14">
-        <f t="shared" ref="D28:D46" si="5">SUMIFS($Q:$Q,$N:$N,$I28,$O:$O,$J28,$P:$P,$K28)/1000</f>
-        <v>3430983.227572374</v>
+        <f t="shared" ref="D28:D46" si="6">SUMIFS($Q:$Q,$N:$N,$I28,$O:$O,$J28,$P:$P,$K28)/1000</f>
+        <v>3550280.246820298</v>
       </c>
       <c r="E28" s="14">
-        <f>SUMIFS($W:$W,$T:$T,$I28,$U:$U,$J28,$V:$V,$K28)/1000</f>
+        <f t="shared" ref="E28:E46" si="7">SUMIFS($W:$W,$T:$T,$I28,$U:$U,$J28,$V:$V,$K28)/1000</f>
         <v>5283524.1236242978</v>
       </c>
       <c r="F28" s="35">
-        <f>SUMIFS($X:$X,$T:$T,$I28,$U:$U,$J28,$V:$V,$K28)/1000+SUMIFS($R:$R,$N:$N,$I28,$O:$O,$J28,$P:$P,$K28)/1000</f>
-        <v>4143.6752135168035</v>
+        <f t="shared" ref="F28:F46" si="8">SUMIFS($X:$X,$T:$T,$I28,$U:$U,$J28,$V:$V,$K28)/1000+SUMIFS($R:$R,$N:$N,$I28,$O:$O,$J28,$P:$P,$K28)/1000</f>
+        <v>4203.9864115870396</v>
       </c>
       <c r="I28" s="28" t="s">
         <v>51</v>
@@ -2484,20 +2484,20 @@
         <v>23</v>
       </c>
       <c r="C29" s="12">
-        <f t="shared" si="4"/>
-        <v>31600481.117039699</v>
+        <f t="shared" si="5"/>
+        <v>31587482.521321457</v>
       </c>
       <c r="D29" s="14">
-        <f t="shared" si="5"/>
-        <v>7482534.8913925402</v>
+        <f t="shared" si="6"/>
+        <v>7469530.9944856875</v>
       </c>
       <c r="E29" s="14">
-        <f>SUMIFS($W:$W,$T:$T,$I29,$U:$U,$J29,$V:$V,$K29)/1000</f>
+        <f t="shared" si="7"/>
         <v>24204195.17854647</v>
       </c>
       <c r="F29" s="35">
-        <f>SUMIFS($X:$X,$T:$T,$I29,$U:$U,$J29,$V:$V,$K29)/1000+SUMIFS($R:$R,$N:$N,$I29,$O:$O,$J29,$P:$P,$K29)/1000</f>
-        <v>86248.95289931052</v>
+        <f t="shared" si="8"/>
+        <v>86243.651710699036</v>
       </c>
       <c r="I29" s="28" t="s">
         <v>4</v>
@@ -2516,19 +2516,19 @@
       </c>
       <c r="C30" s="12">
         <f>D30+E30-F30</f>
-        <v>107284342.94934884</v>
+        <v>107621548.24955232</v>
       </c>
       <c r="D30" s="14">
-        <f t="shared" si="5"/>
-        <v>31141812.5144706</v>
+        <f t="shared" si="6"/>
+        <v>31479174.658011571</v>
       </c>
       <c r="E30" s="14">
-        <f>SUMIFS($W:$W,$T:$T,$I30,$U:$U,$J30,$V:$V,$K30)/1000</f>
+        <f t="shared" si="7"/>
         <v>76319381.985290438</v>
       </c>
       <c r="F30" s="35">
-        <f>SUMIFS($X:$X,$T:$T,$I30,$U:$U,$J30,$V:$V,$K30)/1000+SUMIFS($R:$R,$N:$N,$I30,$O:$O,$J30,$P:$P,$K30)/1000</f>
-        <v>176851.5504122132</v>
+        <f t="shared" si="8"/>
+        <v>177008.39374969131</v>
       </c>
       <c r="I30" s="28" t="s">
         <v>4</v>
@@ -2546,20 +2546,20 @@
         <v>25</v>
       </c>
       <c r="C31" s="12">
-        <f t="shared" ref="C31:C46" si="6">D31+E31-F31</f>
-        <v>125173404.0940261</v>
+        <f t="shared" ref="C31:C46" si="9">D31+E31-F31</f>
+        <v>125035631.68436852</v>
       </c>
       <c r="D31" s="14">
-        <f t="shared" si="5"/>
-        <v>10531274.63208146</v>
+        <f t="shared" si="6"/>
+        <v>10393424.811569661</v>
       </c>
       <c r="E31" s="14">
-        <f>SUMIFS($W:$W,$T:$T,$I31,$U:$U,$J31,$V:$V,$K31)/1000</f>
+        <f t="shared" si="7"/>
         <v>115167578.258099</v>
       </c>
       <c r="F31" s="35">
-        <f>SUMIFS($X:$X,$T:$T,$I31,$U:$U,$J31,$V:$V,$K31)/1000+SUMIFS($R:$R,$N:$N,$I31,$O:$O,$J31,$P:$P,$K31)/1000</f>
-        <v>525448.79615436727</v>
+        <f t="shared" si="8"/>
+        <v>525371.38530015002</v>
       </c>
       <c r="I31" s="28" t="s">
         <v>4</v>
@@ -2577,20 +2577,20 @@
         <v>26</v>
       </c>
       <c r="C32" s="12">
+        <f t="shared" si="9"/>
+        <v>11884409.28695967</v>
+      </c>
+      <c r="D32" s="14">
         <f t="shared" si="6"/>
-        <v>11876203.057652496</v>
-      </c>
-      <c r="D32" s="14">
-        <f t="shared" si="5"/>
-        <v>930664.35999484127</v>
+        <v>938873.84621339687</v>
       </c>
       <c r="E32" s="14">
-        <f>SUMIFS($W:$W,$T:$T,$I32,$U:$U,$J32,$V:$V,$K32)/1000</f>
+        <f t="shared" si="7"/>
         <v>10949902.54843368</v>
       </c>
       <c r="F32" s="35">
-        <f>SUMIFS($X:$X,$T:$T,$I32,$U:$U,$J32,$V:$V,$K32)/1000+SUMIFS($R:$R,$N:$N,$I32,$O:$O,$J32,$P:$P,$K32)/1000</f>
-        <v>4363.8507760257926</v>
+        <f t="shared" si="8"/>
+        <v>4367.1076874060509</v>
       </c>
       <c r="I32" s="28" t="s">
         <v>4</v>
@@ -2608,20 +2608,20 @@
         <v>27</v>
       </c>
       <c r="C33" s="12">
+        <f t="shared" si="9"/>
+        <v>113656816.33979519</v>
+      </c>
+      <c r="D33" s="14">
         <f t="shared" si="6"/>
-        <v>115096651.48877351</v>
-      </c>
-      <c r="D33" s="14">
-        <f t="shared" si="5"/>
-        <v>19150863.81671571</v>
+        <v>17710590.521406218</v>
       </c>
       <c r="E33" s="14">
-        <f>SUMIFS($W:$W,$T:$T,$I33,$U:$U,$J33,$V:$V,$K33)/1000</f>
+        <f t="shared" si="7"/>
         <v>96795765.660416037</v>
       </c>
       <c r="F33" s="35">
-        <f>SUMIFS($X:$X,$T:$T,$I33,$U:$U,$J33,$V:$V,$K33)/1000+SUMIFS($R:$R,$N:$N,$I33,$O:$O,$J33,$P:$P,$K33)/1000</f>
-        <v>849977.98835824314</v>
+        <f t="shared" si="8"/>
+        <v>849539.84202707012</v>
       </c>
       <c r="I33" s="28" t="s">
         <v>4</v>
@@ -2639,20 +2639,20 @@
         <v>28</v>
       </c>
       <c r="C34" s="12">
+        <f t="shared" si="9"/>
+        <v>76583269.192672223</v>
+      </c>
+      <c r="D34" s="14">
         <f t="shared" si="6"/>
-        <v>76707959.880074218</v>
-      </c>
-      <c r="D34" s="14">
-        <f t="shared" si="5"/>
-        <v>23558545.299843282</v>
+        <v>23433787.538490359</v>
       </c>
       <c r="E34" s="14">
-        <f>SUMIFS($W:$W,$T:$T,$I34,$U:$U,$J34,$V:$V,$K34)/1000</f>
+        <f t="shared" si="7"/>
         <v>53187031.653489083</v>
       </c>
       <c r="F34" s="35">
-        <f>SUMIFS($X:$X,$T:$T,$I34,$U:$U,$J34,$V:$V,$K34)/1000+SUMIFS($R:$R,$N:$N,$I34,$O:$O,$J34,$P:$P,$K34)/1000</f>
-        <v>37617.073258148725</v>
+        <f t="shared" si="8"/>
+        <v>37549.999307218866</v>
       </c>
       <c r="I34" s="28" t="s">
         <v>4</v>
@@ -2670,19 +2670,19 @@
         <v>29</v>
       </c>
       <c r="C35" s="12">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="D35" s="14">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="D35" s="14">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
       <c r="E35" s="14">
-        <f>SUMIFS($W:$W,$T:$T,$I35,$U:$U,$J35,$V:$V,$K35)/1000</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F35" s="35">
-        <f>SUMIFS($X:$X,$T:$T,$I35,$U:$U,$J35,$V:$V,$K35)/1000+SUMIFS($R:$R,$N:$N,$I35,$O:$O,$J35,$P:$P,$K35)/1000</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I35" s="28" t="s">
@@ -2701,20 +2701,20 @@
         <v>30</v>
       </c>
       <c r="C36" s="12">
+        <f t="shared" si="9"/>
+        <v>7898942.1733824397</v>
+      </c>
+      <c r="D36" s="14">
         <f t="shared" si="6"/>
-        <v>7899893.1845682096</v>
-      </c>
-      <c r="D36" s="14">
-        <f t="shared" si="5"/>
-        <v>80241.144958514706</v>
+        <v>79289.677485545748</v>
       </c>
       <c r="E36" s="14">
-        <f>SUMIFS($W:$W,$T:$T,$I36,$U:$U,$J36,$V:$V,$K36)/1000</f>
+        <f t="shared" si="7"/>
         <v>7823381.6669095373</v>
       </c>
       <c r="F36" s="35">
-        <f>SUMIFS($X:$X,$T:$T,$I36,$U:$U,$J36,$V:$V,$K36)/1000+SUMIFS($R:$R,$N:$N,$I36,$O:$O,$J36,$P:$P,$K36)/1000</f>
-        <v>3729.6272998424406</v>
+        <f t="shared" si="8"/>
+        <v>3729.1710126436619</v>
       </c>
       <c r="I36" s="28" t="s">
         <v>4</v>
@@ -2732,20 +2732,20 @@
         <v>31</v>
       </c>
       <c r="C37" s="12">
+        <f t="shared" si="9"/>
+        <v>86004646.679618806</v>
+      </c>
+      <c r="D37" s="14">
         <f t="shared" si="6"/>
-        <v>86391532.165927842</v>
-      </c>
-      <c r="D37" s="14">
-        <f t="shared" si="5"/>
-        <v>34230497.701510556</v>
+        <v>33843469.407872222</v>
       </c>
       <c r="E37" s="14">
-        <f>SUMIFS($W:$W,$T:$T,$I37,$U:$U,$J37,$V:$V,$K37)/1000</f>
+        <f t="shared" si="7"/>
         <v>52193915.537443012</v>
       </c>
       <c r="F37" s="35">
-        <f>SUMIFS($X:$X,$T:$T,$I37,$U:$U,$J37,$V:$V,$K37)/1000+SUMIFS($R:$R,$N:$N,$I37,$O:$O,$J37,$P:$P,$K37)/1000</f>
-        <v>32881.073025723308</v>
+        <f t="shared" si="8"/>
+        <v>32738.265696438393</v>
       </c>
       <c r="I37" s="28" t="s">
         <v>4</v>
@@ -2763,19 +2763,19 @@
         <v>32</v>
       </c>
       <c r="C38" s="12">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="D38" s="14">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="D38" s="14">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
       <c r="E38" s="14">
-        <f>SUMIFS($W:$W,$T:$T,$I38,$U:$U,$J38,$V:$V,$K38)/1000</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F38" s="35">
-        <f>SUMIFS($X:$X,$T:$T,$I38,$U:$U,$J38,$V:$V,$K38)/1000+SUMIFS($R:$R,$N:$N,$I38,$O:$O,$J38,$P:$P,$K38)/1000</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I38" s="28" t="s">
@@ -2792,19 +2792,19 @@
         <v>33</v>
       </c>
       <c r="C39" s="12">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="D39" s="14">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="D39" s="14">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
       <c r="E39" s="14">
-        <f>SUMIFS($W:$W,$T:$T,$I39,$U:$U,$J39,$V:$V,$K39)/1000</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F39" s="35">
-        <f>SUMIFS($X:$X,$T:$T,$I39,$U:$U,$J39,$V:$V,$K39)/1000+SUMIFS($R:$R,$N:$N,$I39,$O:$O,$J39,$P:$P,$K39)/1000</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I39" s="28" t="s">
@@ -2821,19 +2821,19 @@
         <v>34</v>
       </c>
       <c r="C40" s="12">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="D40" s="14">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="D40" s="14">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
       <c r="E40" s="14">
-        <f>SUMIFS($W:$W,$T:$T,$I40,$U:$U,$J40,$V:$V,$K40)/1000</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F40" s="35">
-        <f>SUMIFS($X:$X,$T:$T,$I40,$U:$U,$J40,$V:$V,$K40)/1000+SUMIFS($R:$R,$N:$N,$I40,$O:$O,$J40,$P:$P,$K40)/1000</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I40" s="28" t="s">
@@ -2850,19 +2850,19 @@
         <v>35</v>
       </c>
       <c r="C41" s="12">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="D41" s="14">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="D41" s="14">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
       <c r="E41" s="14">
-        <f>SUMIFS($W:$W,$T:$T,$I41,$U:$U,$J41,$V:$V,$K41)/1000</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F41" s="35">
-        <f>SUMIFS($X:$X,$T:$T,$I41,$U:$U,$J41,$V:$V,$K41)/1000+SUMIFS($R:$R,$N:$N,$I41,$O:$O,$J41,$P:$P,$K41)/1000</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I41" s="28" t="s">
@@ -2879,19 +2879,19 @@
         <v>36</v>
       </c>
       <c r="C42" s="12">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="D42" s="14">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="D42" s="14">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
       <c r="E42" s="14">
-        <f>SUMIFS($W:$W,$T:$T,$I42,$U:$U,$J42,$V:$V,$K42)/1000</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F42" s="35">
-        <f>SUMIFS($X:$X,$T:$T,$I42,$U:$U,$J42,$V:$V,$K42)/1000+SUMIFS($R:$R,$N:$N,$I42,$O:$O,$J42,$P:$P,$K42)/1000</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I42" s="28" t="s">
@@ -2908,19 +2908,19 @@
         <v>37</v>
       </c>
       <c r="C43" s="12">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="D43" s="14">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="D43" s="14">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
       <c r="E43" s="14">
-        <f>SUMIFS($W:$W,$T:$T,$I43,$U:$U,$J43,$V:$V,$K43)/1000</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F43" s="35">
-        <f>SUMIFS($X:$X,$T:$T,$I43,$U:$U,$J43,$V:$V,$K43)/1000+SUMIFS($R:$R,$N:$N,$I43,$O:$O,$J43,$P:$P,$K43)/1000</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I43" s="28" t="s">
@@ -2937,19 +2937,19 @@
         <v>38</v>
       </c>
       <c r="C44" s="12">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="D44" s="14">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="D44" s="14">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
       <c r="E44" s="14">
-        <f>SUMIFS($W:$W,$T:$T,$I44,$U:$U,$J44,$V:$V,$K44)/1000</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F44" s="35">
-        <f>SUMIFS($X:$X,$T:$T,$I44,$U:$U,$J44,$V:$V,$K44)/1000+SUMIFS($R:$R,$N:$N,$I44,$O:$O,$J44,$P:$P,$K44)/1000</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I44" s="28" t="s">
@@ -2966,19 +2966,19 @@
         <v>39</v>
       </c>
       <c r="C45" s="12">
+        <f t="shared" si="9"/>
+        <v>60944.960841548214</v>
+      </c>
+      <c r="D45" s="14">
         <f t="shared" si="6"/>
-        <v>60944.960841548214</v>
-      </c>
-      <c r="D45" s="14">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E45" s="14">
-        <f>SUMIFS($W:$W,$T:$T,$I45,$U:$U,$J45,$V:$V,$K45)/1000</f>
+        <f t="shared" si="7"/>
         <v>60973.728833395253</v>
       </c>
       <c r="F45" s="35">
-        <f>SUMIFS($X:$X,$T:$T,$I45,$U:$U,$J45,$V:$V,$K45)/1000+SUMIFS($R:$R,$N:$N,$I45,$O:$O,$J45,$P:$P,$K45)/1000</f>
+        <f t="shared" si="8"/>
         <v>28.767991847035852</v>
       </c>
       <c r="I45" s="28" t="s">
@@ -2997,20 +2997,20 @@
         <v>40</v>
       </c>
       <c r="C46" s="17">
+        <f t="shared" si="9"/>
+        <v>59191259.747992381</v>
+      </c>
+      <c r="D46" s="19">
         <f t="shared" si="6"/>
-        <v>60193650.936742172</v>
-      </c>
-      <c r="D46" s="19">
-        <f t="shared" si="5"/>
-        <v>20013562.242551997</v>
+        <v>19010420.135328669</v>
       </c>
       <c r="E46" s="19">
-        <f>SUMIFS($W:$W,$T:$T,$I46,$U:$U,$J46,$V:$V,$K46)/1000</f>
+        <f t="shared" si="7"/>
         <v>40212777.221251741</v>
       </c>
       <c r="F46" s="36">
-        <f>SUMIFS($X:$X,$T:$T,$I46,$U:$U,$J46,$V:$V,$K46)/1000+SUMIFS($R:$R,$N:$N,$I46,$O:$O,$J46,$P:$P,$K46)/1000</f>
-        <v>32688.527061565543</v>
+        <f t="shared" si="8"/>
+        <v>31937.608588026233</v>
       </c>
       <c r="I46" s="29" t="s">
         <v>4</v>
